--- a/data/general_center/data.xlsx
+++ b/data/general_center/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,25 +483,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.284376</v>
+        <v>34.276960</v>
       </c>
       <c r="C3" t="str">
-        <v>134.040571</v>
+        <v>134.085780</v>
       </c>
       <c r="D3" t="str">
-        <v>仏生山総合センター</v>
+        <v>山田総合センター</v>
       </c>
       <c r="E3" t="str">
-        <v>高松市仏生山甲218番地1</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F3" t="str">
-        <v>087-889-4907</v>
+        <v>087-848-0165</v>
       </c>
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
       </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
@@ -521,19 +518,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>34.24136389</v>
+        <v>34.284376</v>
       </c>
       <c r="C4" t="str">
-        <v>134.03400861</v>
+        <v>134.040571</v>
       </c>
       <c r="D4" t="str">
-        <v>香川総合センター</v>
+        <v>仏生山総合センター</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市香川町川東上1865-13</v>
+        <v>高松市仏生山甲218番地1</v>
       </c>
       <c r="F4" t="str">
-        <v>087-879-3211</v>
+        <v>087-889-4907</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -559,19 +556,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>34.342355</v>
+        <v>34.24136389</v>
       </c>
       <c r="C5" t="str">
-        <v>134.000785</v>
+        <v>134.03400861</v>
       </c>
       <c r="D5" t="str">
-        <v>勝賀総合センター</v>
+        <v>香川総合センター</v>
       </c>
       <c r="E5" t="str">
-        <v>高松市香西南町476-1</v>
+        <v>高松市香川町川東上1865-13</v>
       </c>
       <c r="F5" t="str">
-        <v>087-882-7770</v>
+        <v>087-879-3211</v>
       </c>
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -597,19 +594,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.29721</v>
+        <v>34.342355</v>
       </c>
       <c r="C6" t="str">
-        <v>133.96026083</v>
+        <v>134.000785</v>
       </c>
       <c r="D6" t="str">
-        <v>国分寺総合センター</v>
+        <v>勝賀総合センター</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市国分寺町新居1298</v>
+        <v>高松市香西南町476-1</v>
       </c>
       <c r="F6" t="str">
-        <v>087-874-1111</v>
+        <v>087-882-7770</v>
       </c>
       <c r="G6" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
@@ -627,12 +624,50 @@
         <v>17:00</v>
       </c>
       <c r="L6" t="str">
+        <v>国民の祝日に関する法律に規定する休日及び年末年始（１２月２９日から翌年の１月３日まで）は利用不可。</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>34.29721</v>
+      </c>
+      <c r="C7" t="str">
+        <v>133.96026083</v>
+      </c>
+      <c r="D7" t="str">
+        <v>国分寺総合センター</v>
+      </c>
+      <c r="E7" t="str">
+        <v>高松市国分寺町新居1298</v>
+      </c>
+      <c r="F7" t="str">
+        <v>087-874-1111</v>
+      </c>
+      <c r="G7" t="str">
+        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="J7" t="str">
+        <v>08:30</v>
+      </c>
+      <c r="K7" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="L7" t="str">
         <v>国民の祝日に関する法律に規定する休日及び年末年始（１２月２９日から翌年の１月３日まで）は利用不可。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/general_center/data.xlsx
+++ b/data/general_center/data.xlsx
@@ -500,6 +500,9 @@
       <c r="G3" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/shisho/sougou_center.html</v>
       </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
@@ -527,7 +530,7 @@
         <v>仏生山総合センター</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市仏生山甲218番地1</v>
+        <v>高松市仏生山町甲218番地1</v>
       </c>
       <c r="F4" t="str">
         <v>087-889-4907</v>
